--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.864</v>
+        <v>16.577</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.384</v>
+        <v>16.431</v>
       </c>
     </row>
     <row r="5">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.726000000000001</v>
+        <v>-7.193</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.722</v>
+        <v>-12.765</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.462</v>
+        <v>-12.658</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.632</v>
+        <v>17.074</v>
       </c>
     </row>
     <row r="12">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.45</v>
+        <v>-11.207</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,10 +675,10 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.858</v>
+        <v>-7.878</v>
       </c>
       <c r="E14" t="n">
-        <v>17.014</v>
+        <v>17.329</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.953999999999999</v>
+        <v>-8.317</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,13 +740,13 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.43</v>
+        <v>-13.806</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.398</v>
+        <v>-8.529999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>15.88</v>
+        <v>16.285</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.418</v>
+        <v>16.546</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.150000000000001</v>
+        <v>-7.19</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.626</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="22">
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.202</v>
+        <v>-11.9</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.59</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.459999999999999</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.42</v>
+        <v>-7.331</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.184</v>
+        <v>-7.697</v>
       </c>
       <c r="E31" t="n">
-        <v>17.322</v>
+        <v>16.962</v>
       </c>
     </row>
     <row r="32">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.798</v>
+        <v>-7.737</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.832</v>
+        <v>-13.395</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.678</v>
+        <v>16.591</v>
       </c>
     </row>
     <row r="39">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.38</v>
+        <v>-7.411</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.082</v>
+        <v>16.425</v>
       </c>
     </row>
     <row r="43">
@@ -1185,10 +1185,10 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.210000000000001</v>
+        <v>-7.181</v>
       </c>
       <c r="E44" t="n">
-        <v>17.236</v>
+        <v>16.996</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.81</v>
+        <v>16.466</v>
       </c>
     </row>
     <row r="48">
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.334</v>
+        <v>-8.105</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.843999999999999</v>
+        <v>-8.089</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.916</v>
+        <v>-14.163</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.702</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="57">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.674</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.258</v>
+        <v>17.119</v>
       </c>
     </row>
     <row r="66">
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.298</v>
+        <v>-11.509</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.210000000000001</v>
+        <v>-7.257</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.842</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.122</v>
+        <v>-7.161</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-13.808</v>
+        <v>-13.531</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.844</v>
+        <v>-13.375</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-13.106</v>
+        <v>-13.099</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1794,7 +1794,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.36</v>
+        <v>-13.268</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.298</v>
+        <v>-13.234</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.198</v>
+        <v>-11.933</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.466</v>
+        <v>-12.557</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.585999999999999</v>
+        <v>-8.341000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.824</v>
+        <v>-8.119</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.396</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="91">
@@ -2001,10 +2001,10 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.874</v>
+        <v>-7.517</v>
       </c>
       <c r="E92" t="n">
-        <v>16.106</v>
+        <v>16.442</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>17.426</v>
+        <v>17.741</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.12</v>
+        <v>17.121</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.267</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.219999999999999</v>
+        <v>-8.197999999999999</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2151,13 +2151,13 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.638</v>
+        <v>-12.573</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.122</v>
+        <v>-7.678999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>16.584</v>
+        <v>16.655</v>
       </c>
     </row>
     <row r="102">
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.606</v>
+        <v>-13.836</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.906000000000001</v>
+        <v>-7.81</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
